--- a/results/ALBERT/albert-base-v2_all/recipes_test_2.xlsx
+++ b/results/ALBERT/albert-base-v2_all/recipes_test_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\ALBERT\albert-base-v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\ALBERT\albert-base-v2_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8865932A-0D8D-4EC8-8758-B1307008940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811CC55F-C72B-485A-8FFB-94703C9D95BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAEB528A-6BB8-4D1A-888D-44677D72EC0A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="1015">
   <si>
     <t>rel</t>
   </si>
@@ -3062,7 +3062,28 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>F1-score</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TOT</t>
   </si>
 </sst>
 </file>
@@ -3428,10 +3449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B65661D-608A-4005-BE73-457BB053C3FF}">
-  <dimension ref="A1:D1006"/>
+  <dimension ref="A1:D1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A981" workbookViewId="0">
-      <selection activeCell="I1004" sqref="I1004"/>
+    <sheetView tabSelected="1" topLeftCell="A990" workbookViewId="0">
+      <selection activeCell="F1006" sqref="F1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11446,35 +11467,91 @@
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1003" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1004" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1006" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D1006">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1007" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D1007">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1008" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1009" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D1009">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1010" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1010">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1012" t="s">
         <v>1004</v>
       </c>
-      <c r="D1003">
+      <c r="D1012">
         <f>995/1000</f>
         <v>0.995</v>
       </c>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1004" t="s">
+    <row r="1013" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1013" t="s">
         <v>1005</v>
       </c>
-      <c r="D1004">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1005" t="s">
+      <c r="D1013">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1014" t="s">
         <v>1006</v>
       </c>
-      <c r="D1005">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C1006" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D1006">
-        <v>0.997</v>
+      <c r="D1014">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1015" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D1015">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
